--- a/biology/Médecine/Classe_ATC_V08/Classe_ATC_V08.xlsx
+++ b/biology/Médecine/Classe_ATC_V08/Classe_ATC_V08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC V08, dénommée « Produits de contraste », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV08[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC V08, dénommée « Produits de contraste », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV08. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>V08AA Produits de contraste de haute osmolarité, hydrosolubles
-V08AA01 Acide diatrizoïque
+          <t>V08AA Produits de contraste de haute osmolarité, hydrosolubles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>V08AA01 Acide diatrizoïque
 V08AA02 Acide métrizoïque
 V08AA03 Iodamide
 V08AA04 Acide iotalamique
@@ -523,9 +540,43 @@
 V08AA07 Acide acétrizoïque
 V08AA08 Acide iocarmique
 V08AA09 Méthiodal
-V08AA10 Diodone
-V08AB Produits de contraste de basse osmolarité, hydrosolubles, à tropisme rénal
-V08AB01 Métrizamide (en)
+V08AA10 Diodone</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V08A Produits de contraste iodés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V08AB Produits de contraste de basse osmolarité, hydrosolubles, à tropisme rénal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>V08AB01 Métrizamide (en)
 V08AB02 Iohexol
 V08AB03 Acide ioxaglique
 V08AB04 Iopamidol (en)
@@ -536,9 +587,43 @@
 V08AB09 Iodixanol (en)
 V08AB10 Ioméprol (en)
 V08AB11 Iobitridol (en)
-V08AB12 Ioxilan (en)
-V08AC Produits de contraste hydrosolubles, à tropisme hépatique
-V08AC01 Acide iodoxamique
+V08AB12 Ioxilan (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V08A Produits de contraste iodés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V08AC Produits de contraste hydrosolubles, à tropisme hépatique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>V08AC01 Acide iodoxamique
 V08AC02 Iotroxique acide
 V08AC03 Acide ioglycamique
 V08AC04 Adipiodone (en)
@@ -547,75 +632,119 @@
 V08AC07 Acide iocétamique
 V08AC08 Sodium iopodate (en)
 V08AC09 Acide tyropanoïque
-V08AC10 Calcium iopodate
-V08AD Produits de contraste non hydrosolubles
-V08AD01 Esters éthyliques d'acides gras iodés
+V08AC10 Calcium iopodate</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>V08A Produits de contraste iodés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V08AD Produits de contraste non hydrosolubles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>V08AD01 Esters éthyliques d'acides gras iodés
 V08AD02 Iopydol (en)
 V08AD03 Propyliodone (en)
 V08AD04 Iofendylate (en)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V08</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>V08B Produits de contraste non iodés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>V08BA Produits de contraste barytés
-V08BA01 Sulfate de baryum avec agents de mise en suspension
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V08BA Produits de contraste barytés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>V08BA01 Sulfate de baryum avec agents de mise en suspension
 V08BA02 Sulfate de baryum sans agents de mise en suspension</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V08</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>V08C Produits de contraste pour imagerie par résonance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>V08CA Produits de contraste paramagnétiques
-V08CA01 Acide gadopentétique
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V08CA Produits de contraste paramagnétiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>V08CA01 Acide gadopentétique
 V08CA02 Acide gadotérique
 V08CA03 Gadodiamide (en)
 V08CA04 Gadotéridol (en)
@@ -625,44 +754,117 @@
 V08CA08 Acide gadobénique
 V08CA09 Gadobutrol (en)
 V08CA10 Acide gadoxétique
-V08CA11 Gadofosvéset (en)
-V08CB Produits de contraste superparamagnétiques
-V08CB01 Ferumoxsil
+V08CA11 Gadofosvéset (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V08C Produits de contraste pour imagerie par résonance</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V08CB Produits de contraste superparamagnétiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>V08CB01 Ferumoxsil
 V08CB02 Ferristène
-V08CB03 Oxyde de fer, nanoparticules
-V08CX Autres produits de contraste pour imagerie par résonance
-V08CX01 Perflubron</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V08</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+V08CB03 Oxyde de fer, nanoparticules</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V08C Produits de contraste pour imagerie par résonance</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V08CX Autres produits de contraste pour imagerie par résonance</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>V08CX01 Perflubron</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>V08D Produits pour échographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>V08DA Produits pour échographie
-V08DA01 Microsphères d'albumine humaine
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V08DA Produits pour échographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>V08DA01 Microsphères d'albumine humaine
 V08DA02 Microparticules de galactose
 V08DA03 Perflénapent
 V08DA04 Microsphères de phospholipides
